--- a/out/test/Figori_algorithm_29.xlsx
+++ b/out/test/Figori_algorithm_29.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.72014999999999996</v>
+        <v>0.71655000000000002</v>
       </c>
       <c r="B1">
-        <v>0.73160000000000003</v>
+        <v>0.69194999999999995</v>
       </c>
       <c r="C1">
-        <v>0.67689999999999995</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="D1">
-        <v>0.75455000000000005</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="E1">
-        <v>0.74145000000000005</v>
+        <v>0.74770000000000003</v>
       </c>
       <c r="F1">
-        <v>0.75475000000000003</v>
+        <v>0.72675000000000001</v>
       </c>
       <c r="G1">
-        <v>0.68494999999999995</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="H1">
-        <v>0.72165000000000001</v>
+        <v>0.68745000000000001</v>
       </c>
       <c r="I1">
-        <v>0.73050000000000004</v>
+        <v>0.74070000000000003</v>
       </c>
       <c r="J1">
-        <v>0.7369</v>
+        <v>0.73124999999999996</v>
       </c>
       <c r="K1">
-        <v>0.68184999999999996</v>
+        <v>0.68540000000000001</v>
       </c>
       <c r="L1">
-        <v>0.74150000000000005</v>
+        <v>0.73534999999999995</v>
       </c>
       <c r="M1">
-        <v>0.74834999999999996</v>
+        <v>0.75760000000000005</v>
       </c>
       <c r="N1">
-        <v>0.68979999999999997</v>
+        <v>0.75680000000000003</v>
       </c>
       <c r="O1">
-        <v>0.71460000000000001</v>
+        <v>0.7359</v>
       </c>
       <c r="P1">
-        <v>0.72935000000000005</v>
+        <v>0.73060000000000003</v>
       </c>
       <c r="Q1">
-        <v>0.71599999999999997</v>
+        <v>0.73485</v>
       </c>
       <c r="R1">
-        <v>0.74680000000000002</v>
+        <v>0.72235000000000005</v>
       </c>
       <c r="S1">
-        <v>0.68289999999999995</v>
+        <v>0.71919999999999995</v>
       </c>
       <c r="T1">
-        <v>0.75849999999999995</v>
+        <v>0.75370000000000004</v>
       </c>
       <c r="U1">
-        <v>0.74775000000000003</v>
+        <v>0.71830000000000005</v>
       </c>
       <c r="V1">
-        <v>0.73350000000000004</v>
+        <v>0.74675000000000002</v>
       </c>
       <c r="W1">
-        <v>0.75139999999999996</v>
+        <v>0.71909999999999996</v>
       </c>
       <c r="X1">
-        <v>0.72894999999999999</v>
+        <v>0.70855000000000001</v>
       </c>
       <c r="Y1">
-        <v>0.72235000000000005</v>
+        <v>0.68320000000000003</v>
       </c>
       <c r="Z1">
-        <v>0.75639999999999996</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="AA1">
-        <v>0.72589999999999999</v>
+        <v>0.71865000000000001</v>
       </c>
       <c r="AB1">
-        <v>0.71379999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="AC1">
-        <v>0.71419999999999995</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="AD1">
-        <v>0.74199999999999999</v>
+        <v>0.74119999999999997</v>
       </c>
       <c r="AE1">
-        <v>0.72809999999999997</v>
+        <v>0.74529999999999996</v>
       </c>
       <c r="AF1">
-        <v>0.68215000000000003</v>
+        <v>0.68479999999999996</v>
       </c>
       <c r="AG1">
-        <v>0.73785000000000001</v>
+        <v>0.72740000000000005</v>
       </c>
       <c r="AH1">
-        <v>0.73250000000000004</v>
+        <v>0.72545000000000004</v>
       </c>
       <c r="AI1">
-        <v>0.73665000000000003</v>
+        <v>0.69230000000000003</v>
       </c>
       <c r="AJ1">
-        <v>0.72889999999999999</v>
+        <v>0.74970000000000003</v>
       </c>
       <c r="AK1">
-        <v>0.74455000000000005</v>
+        <v>0.73724999999999996</v>
       </c>
       <c r="AL1">
-        <v>0.76060000000000005</v>
+        <v>0.73850000000000005</v>
       </c>
       <c r="AM1">
-        <v>0.74590000000000001</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="AN1">
-        <v>0.73365000000000002</v>
+        <v>0.74334999999999996</v>
       </c>
       <c r="AO1">
-        <v>0.72514999999999996</v>
+        <v>0.68135000000000001</v>
       </c>
       <c r="AP1">
-        <v>0.74544999999999995</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="AQ1">
-        <v>0.75280000000000002</v>
+        <v>0.72150000000000003</v>
       </c>
       <c r="AR1">
-        <v>0.74465000000000003</v>
+        <v>0.74170000000000003</v>
       </c>
       <c r="AS1">
-        <v>0.75490000000000002</v>
+        <v>0.75519999999999998</v>
       </c>
       <c r="AT1">
-        <v>0.74924999999999997</v>
+        <v>0.71655000000000002</v>
       </c>
       <c r="AU1">
-        <v>0.73014999999999997</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="AV1">
-        <v>0.68789999999999996</v>
+        <v>0.74904999999999999</v>
       </c>
       <c r="AW1">
-        <v>0.75560000000000005</v>
+        <v>0.67974999999999997</v>
       </c>
       <c r="AX1">
-        <v>0.70779999999999998</v>
+        <v>0.71440000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.71309999999999996</v>
+        <v>0.63939999999999997</v>
       </c>
       <c r="B2">
-        <v>0.69940000000000002</v>
+        <v>0.61270000000000002</v>
       </c>
       <c r="C2">
-        <v>0.50600000000000001</v>
+        <v>0.69084999999999996</v>
       </c>
       <c r="D2">
-        <v>0.72375</v>
+        <v>0.75560000000000005</v>
       </c>
       <c r="E2">
-        <v>0.80169999999999997</v>
+        <v>0.68135000000000001</v>
       </c>
       <c r="F2">
-        <v>0.81499999999999995</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="G2">
-        <v>0.58755000000000002</v>
+        <v>0.75739999999999996</v>
       </c>
       <c r="H2">
-        <v>0.77529999999999999</v>
+        <v>0.57435000000000003</v>
       </c>
       <c r="I2">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="L2">
+        <v>0.73155000000000003</v>
+      </c>
+      <c r="M2">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="O2">
+        <v>0.65739999999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="Q2">
+        <v>0.74224999999999997</v>
+      </c>
+      <c r="R2">
+        <v>0.62544999999999995</v>
+      </c>
+      <c r="S2">
+        <v>0.70874999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.73109999999999997</v>
+      </c>
+      <c r="U2">
+        <v>0.71174999999999999</v>
+      </c>
+      <c r="V2">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="W2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="X2">
+        <v>0.56594999999999995</v>
+      </c>
+      <c r="Y2">
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.7238</v>
+      </c>
+      <c r="AA2">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="AB2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AC2">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="AD2">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="AE2">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="AF2">
+        <v>0.66405000000000003</v>
+      </c>
+      <c r="AG2">
+        <v>0.7964</v>
+      </c>
+      <c r="AH2">
+        <v>0.74539999999999995</v>
+      </c>
+      <c r="AI2">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="AJ2">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="AK2">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="AL2">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="AN2">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="AO2">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="AP2">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="AQ2">
         <v>0.81989999999999996</v>
       </c>
-      <c r="J2">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="K2">
-        <v>0.65439999999999998</v>
-      </c>
-      <c r="L2">
-        <v>0.73309999999999997</v>
-      </c>
-      <c r="M2">
-        <v>0.72650000000000003</v>
-      </c>
-      <c r="N2">
-        <v>0.65110000000000001</v>
-      </c>
-      <c r="O2">
-        <v>0.68515000000000004</v>
-      </c>
-      <c r="P2">
-        <v>0.69684999999999997</v>
-      </c>
-      <c r="Q2">
-        <v>0.63580000000000003</v>
-      </c>
-      <c r="R2">
-        <v>0.79169999999999996</v>
-      </c>
-      <c r="S2">
-        <v>0.60660000000000003</v>
-      </c>
-      <c r="T2">
-        <v>0.82525000000000004</v>
-      </c>
-      <c r="U2">
-        <v>0.81389999999999996</v>
-      </c>
-      <c r="V2">
-        <v>0.79125000000000001</v>
-      </c>
-      <c r="W2">
-        <v>0.72950000000000004</v>
-      </c>
-      <c r="X2">
-        <v>0.73204999999999998</v>
-      </c>
-      <c r="Y2">
-        <v>0.68559999999999999</v>
-      </c>
-      <c r="Z2">
-        <v>0.73350000000000004</v>
-      </c>
-      <c r="AA2">
-        <v>0.67410000000000003</v>
-      </c>
-      <c r="AB2">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="AC2">
-        <v>0.69435000000000002</v>
-      </c>
-      <c r="AD2">
-        <v>0.68774999999999997</v>
-      </c>
-      <c r="AE2">
-        <v>0.68074999999999997</v>
-      </c>
-      <c r="AF2">
-        <v>0.80615000000000003</v>
-      </c>
-      <c r="AG2">
-        <v>0.7077</v>
-      </c>
-      <c r="AH2">
-        <v>0.84275</v>
-      </c>
-      <c r="AI2">
-        <v>0.72585</v>
-      </c>
-      <c r="AJ2">
-        <v>0.65949999999999998</v>
-      </c>
-      <c r="AK2">
-        <v>0.72819999999999996</v>
-      </c>
-      <c r="AL2">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="AM2">
-        <v>0.69869999999999999</v>
-      </c>
-      <c r="AN2">
-        <v>0.8115</v>
-      </c>
-      <c r="AO2">
-        <v>0.65964999999999996</v>
-      </c>
-      <c r="AP2">
-        <v>0.63229999999999997</v>
-      </c>
-      <c r="AQ2">
-        <v>0.73829999999999996</v>
-      </c>
       <c r="AR2">
-        <v>0.71084999999999998</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="AS2">
-        <v>0.74729999999999996</v>
+        <v>0.70330000000000004</v>
       </c>
       <c r="AT2">
-        <v>0.7288</v>
+        <v>0.80559999999999998</v>
       </c>
       <c r="AU2">
-        <v>0.64439999999999997</v>
+        <v>0.63965000000000005</v>
       </c>
       <c r="AV2">
-        <v>0.5585</v>
+        <v>0.8488</v>
       </c>
       <c r="AW2">
-        <v>0.78779999999999994</v>
+        <v>0.68820000000000003</v>
       </c>
       <c r="AX2">
-        <v>0.78769999999999996</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.77229999999999999</v>
+        <v>0.52680000000000005</v>
       </c>
       <c r="B3">
-        <v>0.83479999999999999</v>
+        <v>0.65095000000000003</v>
       </c>
       <c r="C3">
-        <v>0.44695000000000001</v>
+        <v>0.71794999999999998</v>
       </c>
       <c r="D3">
-        <v>0.81459999999999999</v>
+        <v>0.77049999999999996</v>
       </c>
       <c r="E3">
-        <v>0.88729999999999998</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="F3">
-        <v>0.75839999999999996</v>
+        <v>0.78</v>
       </c>
       <c r="G3">
-        <v>0.40339999999999998</v>
+        <v>0.79374999999999996</v>
       </c>
       <c r="H3">
-        <v>0.64034999999999997</v>
+        <v>0.33989999999999998</v>
       </c>
       <c r="I3">
-        <v>0.91539999999999999</v>
+        <v>0.73070000000000002</v>
       </c>
       <c r="J3">
-        <v>0.66090000000000004</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="K3">
-        <v>0.72124999999999995</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="L3">
-        <v>0.65205000000000002</v>
+        <v>0.72145000000000004</v>
       </c>
       <c r="M3">
-        <v>0.68340000000000001</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="N3">
-        <v>0.57769999999999999</v>
+        <v>0.75639999999999996</v>
       </c>
       <c r="O3">
-        <v>0.6431</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="P3">
-        <v>0.77200000000000002</v>
+        <v>0.54064999999999996</v>
       </c>
       <c r="Q3">
-        <v>0.70399999999999996</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="R3">
-        <v>0.81510000000000005</v>
+        <v>0.67710000000000004</v>
       </c>
       <c r="S3">
-        <v>0.6169</v>
+        <v>0.54854999999999998</v>
       </c>
       <c r="T3">
-        <v>0.74180000000000001</v>
+        <v>0.83730000000000004</v>
       </c>
       <c r="U3">
-        <v>0.74670000000000003</v>
+        <v>0.55820000000000003</v>
       </c>
       <c r="V3">
-        <v>0.81159999999999999</v>
+        <v>0.59409999999999996</v>
       </c>
       <c r="W3">
-        <v>0.80935000000000001</v>
+        <v>0.76334999999999997</v>
       </c>
       <c r="X3">
-        <v>0.79779999999999995</v>
+        <v>0.48914999999999997</v>
       </c>
       <c r="Y3">
-        <v>0.54949999999999999</v>
+        <v>0.82184999999999997</v>
       </c>
       <c r="Z3">
-        <v>0.66539999999999999</v>
+        <v>0.89239999999999997</v>
       </c>
       <c r="AA3">
-        <v>0.67200000000000004</v>
+        <v>0.77559999999999996</v>
       </c>
       <c r="AB3">
-        <v>0.73360000000000003</v>
+        <v>0.55730000000000002</v>
       </c>
       <c r="AC3">
-        <v>0.76649999999999996</v>
+        <v>0.77680000000000005</v>
       </c>
       <c r="AD3">
-        <v>0.71875</v>
+        <v>0.60729999999999995</v>
       </c>
       <c r="AE3">
-        <v>0.69920000000000004</v>
+        <v>0.50085000000000002</v>
       </c>
       <c r="AF3">
-        <v>0.78969999999999996</v>
+        <v>0.48115000000000002</v>
       </c>
       <c r="AG3">
-        <v>0.74829999999999997</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.81230000000000002</v>
+        <v>0.68174999999999997</v>
       </c>
       <c r="AI3">
-        <v>0.76549999999999996</v>
+        <v>0.54564999999999997</v>
       </c>
       <c r="AJ3">
-        <v>0.62209999999999999</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="AK3">
-        <v>0.7722</v>
+        <v>0.7137</v>
       </c>
       <c r="AL3">
-        <v>0.80979999999999996</v>
+        <v>0.7127</v>
       </c>
       <c r="AM3">
-        <v>0.69835000000000003</v>
+        <v>0.83630000000000004</v>
       </c>
       <c r="AN3">
-        <v>0.69884999999999997</v>
+        <v>0.72409999999999997</v>
       </c>
       <c r="AO3">
-        <v>0.55449999999999999</v>
+        <v>0.59945000000000004</v>
       </c>
       <c r="AP3">
-        <v>0.65725</v>
+        <v>0.61695</v>
       </c>
       <c r="AQ3">
-        <v>0.79195000000000004</v>
+        <v>0.77180000000000004</v>
       </c>
       <c r="AR3">
-        <v>0.81979999999999997</v>
+        <v>0.60829999999999995</v>
       </c>
       <c r="AS3">
-        <v>0.70940000000000003</v>
+        <v>0.66859999999999997</v>
       </c>
       <c r="AT3">
-        <v>0.61895</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="AU3">
-        <v>0.58279999999999998</v>
+        <v>0.70909999999999995</v>
       </c>
       <c r="AV3">
-        <v>0.42620000000000002</v>
+        <v>0.77625</v>
       </c>
       <c r="AW3">
-        <v>0.71525000000000005</v>
+        <v>0.56289999999999996</v>
       </c>
       <c r="AX3">
-        <v>0.44450000000000001</v>
+        <v>0.68659999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.83099999999999996</v>
+        <v>0.53510000000000002</v>
       </c>
       <c r="B4">
-        <v>0.79669999999999996</v>
+        <v>0.46744999999999998</v>
       </c>
       <c r="C4">
-        <v>0.28860000000000002</v>
+        <v>0.60975000000000001</v>
       </c>
       <c r="D4">
-        <v>0.70420000000000005</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="E4">
-        <v>0.88780000000000003</v>
+        <v>0.6371</v>
       </c>
       <c r="F4">
-        <v>0.74350000000000005</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="G4">
-        <v>0.45750000000000002</v>
+        <v>0.72314999999999996</v>
       </c>
       <c r="H4">
-        <v>0.48089999999999999</v>
+        <v>0.71655000000000002</v>
       </c>
       <c r="I4">
-        <v>0.88980000000000004</v>
+        <v>0.69450000000000001</v>
       </c>
       <c r="J4">
-        <v>0.65439999999999998</v>
+        <v>0.58979999999999999</v>
       </c>
       <c r="K4">
-        <v>0.78480000000000005</v>
+        <v>0.80559999999999998</v>
       </c>
       <c r="L4">
-        <v>0.66664999999999996</v>
+        <v>0.63519999999999999</v>
       </c>
       <c r="M4">
-        <v>0.90610000000000002</v>
+        <v>0.58230000000000004</v>
       </c>
       <c r="N4">
-        <v>0.47499999999999998</v>
+        <v>0.76619999999999999</v>
       </c>
       <c r="O4">
-        <v>0.83299999999999996</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="P4">
-        <v>0.66244999999999998</v>
+        <v>0.46834999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.70599999999999996</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="R4">
-        <v>0.93159999999999998</v>
+        <v>0.72829999999999995</v>
       </c>
       <c r="S4">
-        <v>0.76690000000000003</v>
+        <v>0.40255000000000002</v>
       </c>
       <c r="T4">
-        <v>0.64675000000000005</v>
+        <v>0.81064999999999998</v>
       </c>
       <c r="U4">
-        <v>0.74960000000000004</v>
+        <v>0.51719999999999999</v>
       </c>
       <c r="V4">
-        <v>0.75370000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="W4">
-        <v>0.75490000000000002</v>
+        <v>0.62560000000000004</v>
       </c>
       <c r="X4">
-        <v>0.66510000000000002</v>
+        <v>0.42104999999999998</v>
       </c>
       <c r="Y4">
-        <v>0.50419999999999998</v>
+        <v>0.70740000000000003</v>
       </c>
       <c r="Z4">
-        <v>0.62470000000000003</v>
+        <v>0.79320000000000002</v>
       </c>
       <c r="AA4">
-        <v>0.5665</v>
+        <v>0.63770000000000004</v>
       </c>
       <c r="AB4">
-        <v>0.61660000000000004</v>
+        <v>0.56705000000000005</v>
       </c>
       <c r="AC4">
-        <v>0.85880000000000001</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="AD4">
-        <v>0.72340000000000004</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="AE4">
-        <v>0.6875</v>
+        <v>0.54749999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.85729999999999995</v>
+        <v>0.30309999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.70469999999999999</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="AH4">
-        <v>0.73550000000000004</v>
+        <v>0.66979999999999995</v>
       </c>
       <c r="AI4">
-        <v>0.70760000000000001</v>
+        <v>0.62070000000000003</v>
       </c>
       <c r="AJ4">
-        <v>0.54710000000000003</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="AK4">
-        <v>0.75360000000000005</v>
+        <v>0.68359999999999999</v>
       </c>
       <c r="AL4">
-        <v>0.72550000000000003</v>
+        <v>0.52649999999999997</v>
       </c>
       <c r="AM4">
-        <v>0.60565000000000002</v>
+        <v>0.76990000000000003</v>
       </c>
       <c r="AN4">
-        <v>0.53444999999999998</v>
+        <v>0.62224999999999997</v>
       </c>
       <c r="AO4">
-        <v>0.60724999999999996</v>
+        <v>0.49780000000000002</v>
       </c>
       <c r="AP4">
-        <v>0.60609999999999997</v>
+        <v>0.51129999999999998</v>
       </c>
       <c r="AQ4">
-        <v>0.68330000000000002</v>
+        <v>0.88824999999999998</v>
       </c>
       <c r="AR4">
-        <v>0.96120000000000005</v>
+        <v>0.58779999999999999</v>
       </c>
       <c r="AS4">
-        <v>0.74129999999999996</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="AT4">
-        <v>0.65690000000000004</v>
+        <v>0.82210000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.52475000000000005</v>
+        <v>0.75849999999999995</v>
       </c>
       <c r="AV4">
-        <v>0.66969999999999996</v>
+        <v>0.70204999999999995</v>
       </c>
       <c r="AW4">
-        <v>0.63300000000000001</v>
+        <v>0.58809999999999996</v>
       </c>
       <c r="AX4">
-        <v>0.37845000000000001</v>
+        <v>0.58169999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.84909999999999997</v>
+        <v>0.42509999999999998</v>
       </c>
       <c r="B5">
-        <v>0.73550000000000004</v>
+        <v>0.32329999999999998</v>
       </c>
       <c r="C5">
-        <v>0.36799999999999999</v>
+        <v>0.48130000000000001</v>
       </c>
       <c r="D5">
-        <v>0.64929999999999999</v>
+        <v>0.65169999999999995</v>
       </c>
       <c r="E5">
-        <v>0.83760000000000001</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F5">
-        <v>0.75339999999999996</v>
+        <v>0.90680000000000005</v>
       </c>
       <c r="G5">
-        <v>0.41489999999999999</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="H5">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="J5">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="K5">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="O5">
+        <v>0.5696</v>
+      </c>
+      <c r="P5">
+        <v>0.5998</v>
+      </c>
+      <c r="Q5">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="R5">
+        <v>0.69</v>
+      </c>
+      <c r="S5">
+        <v>0.5333</v>
+      </c>
+      <c r="T5">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="U5">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="V5">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="W5">
+        <v>0.5333</v>
+      </c>
+      <c r="X5">
         <v>0.36870000000000003</v>
       </c>
-      <c r="I5">
-        <v>0.79390000000000005</v>
-      </c>
-      <c r="J5">
-        <v>0.56340000000000001</v>
-      </c>
-      <c r="K5">
-        <v>0.91849999999999998</v>
-      </c>
-      <c r="L5">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="M5">
-        <v>0.91359999999999997</v>
-      </c>
-      <c r="N5">
-        <v>0.7399</v>
-      </c>
-      <c r="O5">
-        <v>0.74919999999999998</v>
-      </c>
-      <c r="P5">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="Q5">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="R5">
-        <v>0.85440000000000005</v>
-      </c>
-      <c r="S5">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="T5">
-        <v>0.74124999999999996</v>
-      </c>
-      <c r="U5">
-        <v>0.76049999999999995</v>
-      </c>
-      <c r="V5">
-        <v>0.5948</v>
-      </c>
-      <c r="W5">
-        <v>0.57584999999999997</v>
-      </c>
-      <c r="X5">
-        <v>0.85189999999999999</v>
-      </c>
       <c r="Y5">
-        <v>0.49780000000000002</v>
+        <v>0.6321</v>
       </c>
       <c r="Z5">
-        <v>0.70209999999999995</v>
+        <v>0.76670000000000005</v>
       </c>
       <c r="AA5">
-        <v>0.57584999999999997</v>
+        <v>0.61639999999999995</v>
       </c>
       <c r="AB5">
-        <v>0.39050000000000001</v>
+        <v>0.59250000000000003</v>
       </c>
       <c r="AC5">
-        <v>0.89729999999999999</v>
+        <v>0.90869999999999995</v>
       </c>
       <c r="AD5">
-        <v>0.62339999999999995</v>
+        <v>0.74019999999999997</v>
       </c>
       <c r="AE5">
-        <v>0.63590000000000002</v>
+        <v>0.45615</v>
       </c>
       <c r="AF5">
-        <v>0.7591</v>
+        <v>0.1479</v>
       </c>
       <c r="AG5">
-        <v>0.80600000000000005</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="AH5">
-        <v>0.64790000000000003</v>
+        <v>0.37490000000000001</v>
       </c>
       <c r="AI5">
-        <v>0.53849999999999998</v>
+        <v>0.42620000000000002</v>
       </c>
       <c r="AJ5">
-        <v>0.40550000000000003</v>
+        <v>0.92949999999999999</v>
       </c>
       <c r="AK5">
-        <v>0.62690000000000001</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="AL5">
-        <v>0.66</v>
+        <v>0.73709999999999998</v>
       </c>
       <c r="AM5">
-        <v>0.59284999999999999</v>
+        <v>0.64070000000000005</v>
       </c>
       <c r="AN5">
-        <v>0.54110000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="AO5">
-        <v>0.63790000000000002</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="AP5">
-        <v>0.59370000000000001</v>
+        <v>0.39729999999999999</v>
       </c>
       <c r="AQ5">
-        <v>0.43390000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="AR5">
-        <v>0.90429999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="AS5">
-        <v>0.70330000000000004</v>
+        <v>0.67210000000000003</v>
       </c>
       <c r="AT5">
-        <v>0.75690000000000002</v>
+        <v>0.78580000000000005</v>
       </c>
       <c r="AU5">
-        <v>0.5323</v>
+        <v>0.5222</v>
       </c>
       <c r="AV5">
-        <v>0.67079999999999995</v>
+        <v>0.50180000000000002</v>
       </c>
       <c r="AW5">
-        <v>0.60650000000000004</v>
+        <v>0.47925000000000001</v>
       </c>
       <c r="AX5">
-        <v>0.43385000000000001</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.75429999999999997</v>
+        <v>0.41849999999999998</v>
       </c>
       <c r="B6">
-        <v>0.70760000000000001</v>
+        <v>0.40839999999999999</v>
       </c>
       <c r="C6">
-        <v>0.85089999999999999</v>
+        <v>0.75870000000000004</v>
       </c>
       <c r="D6">
-        <v>0.68730000000000002</v>
+        <v>0.83440000000000003</v>
       </c>
       <c r="E6">
-        <v>0.80840000000000001</v>
+        <v>0.84179999999999999</v>
       </c>
       <c r="F6">
-        <v>0.79830000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G6">
-        <v>0.33400000000000002</v>
+        <v>0.84870000000000001</v>
       </c>
       <c r="H6">
-        <v>0.33400000000000002</v>
+        <v>0.56320000000000003</v>
       </c>
       <c r="I6">
-        <v>0.91479999999999995</v>
+        <v>0.69879999999999998</v>
       </c>
       <c r="J6">
-        <v>0.60260000000000002</v>
+        <v>0.52739999999999998</v>
       </c>
       <c r="K6">
-        <v>0.85499999999999998</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="L6">
-        <v>0.62190000000000001</v>
+        <v>0.47760000000000002</v>
       </c>
       <c r="M6">
-        <v>0.90380000000000005</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="N6">
-        <v>0.60850000000000004</v>
+        <v>0.69289999999999996</v>
       </c>
       <c r="O6">
-        <v>0.75509999999999999</v>
+        <v>0.37580000000000002</v>
       </c>
       <c r="P6">
-        <v>0.73809999999999998</v>
+        <v>0.56689999999999996</v>
       </c>
       <c r="Q6">
-        <v>0.69899999999999995</v>
+        <v>0.82920000000000005</v>
       </c>
       <c r="R6">
-        <v>0.79510000000000003</v>
+        <v>0.67989999999999995</v>
       </c>
       <c r="S6">
-        <v>0.72640000000000005</v>
+        <v>0.32129999999999997</v>
       </c>
       <c r="T6">
-        <v>0.71089999999999998</v>
+        <v>0.50260000000000005</v>
       </c>
       <c r="U6">
-        <v>0.748</v>
+        <v>0.80210000000000004</v>
       </c>
       <c r="V6">
-        <v>0.34110000000000001</v>
+        <v>0.46910000000000002</v>
       </c>
       <c r="W6">
-        <v>0.38100000000000001</v>
+        <v>0.42330000000000001</v>
       </c>
       <c r="X6">
-        <v>0.91690000000000005</v>
+        <v>0.25119999999999998</v>
       </c>
       <c r="Y6">
-        <v>0.5181</v>
+        <v>0.5534</v>
       </c>
       <c r="Z6">
-        <v>0.62239999999999995</v>
+        <v>0.75270000000000004</v>
       </c>
       <c r="AA6">
-        <v>0.69359999999999999</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="AB6">
-        <v>0.26440000000000002</v>
+        <v>0.625</v>
       </c>
       <c r="AC6">
-        <v>0.8095</v>
+        <v>0.88949999999999996</v>
       </c>
       <c r="AD6">
-        <v>0.33579999999999999</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="AE6">
-        <v>0.62790000000000001</v>
+        <v>0.29330000000000001</v>
       </c>
       <c r="AF6">
-        <v>0.92130000000000001</v>
+        <v>0.49690000000000001</v>
       </c>
       <c r="AG6">
-        <v>0.84660000000000002</v>
+        <v>0.48630000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.51280000000000003</v>
+        <v>0.26229999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.61519999999999997</v>
+        <v>0.28289999999999998</v>
       </c>
       <c r="AJ6">
-        <v>0.2928</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="AK6">
-        <v>0.62829999999999997</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="AL6">
-        <v>0.62090000000000001</v>
+        <v>0.79690000000000005</v>
       </c>
       <c r="AM6">
-        <v>0.35780000000000001</v>
+        <v>0.49249999999999999</v>
       </c>
       <c r="AN6">
-        <v>0.4723</v>
+        <v>0.4803</v>
       </c>
       <c r="AO6">
-        <v>0.67969999999999997</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="AP6">
-        <v>0.44069999999999998</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="AQ6">
-        <v>0.31940000000000002</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="AR6">
-        <v>0.79469999999999996</v>
+        <v>0.75380000000000003</v>
       </c>
       <c r="AS6">
-        <v>0.61850000000000005</v>
+        <v>0.6169</v>
       </c>
       <c r="AT6">
-        <v>0.68910000000000005</v>
+        <v>0.81340000000000001</v>
       </c>
       <c r="AU6">
-        <v>0.68220000000000003</v>
+        <v>0.73009999999999997</v>
       </c>
       <c r="AV6">
-        <v>0.54630000000000001</v>
+        <v>0.53359999999999996</v>
       </c>
       <c r="AW6">
-        <v>0.60829999999999995</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="AX6">
-        <v>0.68689999999999996</v>
+        <v>0.65459999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.56950000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="B7">
-        <v>0.60699999999999998</v>
+        <v>0.46110000000000001</v>
       </c>
       <c r="C7">
-        <v>0.89880000000000004</v>
+        <v>0.75749999999999995</v>
       </c>
       <c r="D7">
-        <v>0.78290000000000004</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="E7">
-        <v>0.66349999999999998</v>
+        <v>0.79849999999999999</v>
       </c>
       <c r="F7">
-        <v>0.75309999999999999</v>
+        <v>0.77749999999999997</v>
       </c>
       <c r="G7">
-        <v>0.17730000000000001</v>
+        <v>0.75939999999999996</v>
       </c>
       <c r="H7">
-        <v>0.60770000000000002</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="I7">
-        <v>0.87319999999999998</v>
+        <v>0.69950000000000001</v>
       </c>
       <c r="J7">
-        <v>0.57440000000000002</v>
+        <v>0.39560000000000001</v>
       </c>
       <c r="K7">
-        <v>0.9002</v>
+        <v>0.65090000000000003</v>
       </c>
       <c r="L7">
-        <v>0.41599999999999998</v>
+        <v>0.33910000000000001</v>
       </c>
       <c r="M7">
-        <v>0.89470000000000005</v>
+        <v>0.56120000000000003</v>
       </c>
       <c r="N7">
-        <v>0.74060000000000004</v>
+        <v>0.60109999999999997</v>
       </c>
       <c r="O7">
-        <v>0.76449999999999996</v>
+        <v>0.26640000000000003</v>
       </c>
       <c r="P7">
-        <v>0.66449999999999998</v>
+        <v>0.37380000000000002</v>
       </c>
       <c r="Q7">
-        <v>0.65980000000000005</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="R7">
-        <v>0.83799999999999997</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="S7">
-        <v>0.56940000000000002</v>
+        <v>0.36380000000000001</v>
       </c>
       <c r="T7">
-        <v>0.85250000000000004</v>
+        <v>0.46810000000000002</v>
       </c>
       <c r="U7">
-        <v>0.65790000000000004</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="V7">
-        <v>0.4602</v>
+        <v>0.50539999999999996</v>
       </c>
       <c r="W7">
-        <v>0.63560000000000005</v>
+        <v>0.35820000000000002</v>
       </c>
       <c r="X7">
-        <v>0.88349999999999995</v>
+        <v>0.50970000000000004</v>
       </c>
       <c r="Y7">
-        <v>0.48899999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="Z7">
-        <v>0.61650000000000005</v>
+        <v>0.65490000000000004</v>
       </c>
       <c r="AA7">
-        <v>0.63160000000000005</v>
+        <v>0.878</v>
       </c>
       <c r="AB7">
-        <v>0.45129999999999998</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="AC7">
-        <v>0.88990000000000002</v>
+        <v>0.74519999999999997</v>
       </c>
       <c r="AD7">
-        <v>0.39090000000000003</v>
+        <v>0.81469999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.49790000000000001</v>
+        <v>0.59140000000000004</v>
       </c>
       <c r="AF7">
-        <v>0.84570000000000001</v>
+        <v>0.65090000000000003</v>
       </c>
       <c r="AG7">
-        <v>0.72929999999999995</v>
+        <v>0.2001</v>
       </c>
       <c r="AH7">
-        <v>0.45329999999999998</v>
+        <v>0.27229999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.60050000000000003</v>
+        <v>0.439</v>
       </c>
       <c r="AJ7">
-        <v>0.38940000000000002</v>
+        <v>0.78920000000000001</v>
       </c>
       <c r="AK7">
-        <v>0.36130000000000001</v>
+        <v>0.52239999999999998</v>
       </c>
       <c r="AL7">
-        <v>0.505</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="AM7">
-        <v>0.26040000000000002</v>
+        <v>0.55410000000000004</v>
       </c>
       <c r="AN7">
-        <v>0.51870000000000005</v>
+        <v>0.59640000000000004</v>
       </c>
       <c r="AO7">
-        <v>0.54559999999999997</v>
+        <v>0.37119999999999997</v>
       </c>
       <c r="AP7">
-        <v>0.38059999999999999</v>
+        <v>0.25080000000000002</v>
       </c>
       <c r="AQ7">
-        <v>0.29110000000000003</v>
+        <v>0.77390000000000003</v>
       </c>
       <c r="AR7">
-        <v>0.82740000000000002</v>
+        <v>0.62949999999999995</v>
       </c>
       <c r="AS7">
-        <v>0.67589999999999995</v>
+        <v>0.58740000000000003</v>
       </c>
       <c r="AT7">
-        <v>0.6361</v>
+        <v>0.79530000000000001</v>
       </c>
       <c r="AU7">
-        <v>0.55149999999999999</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="AV7">
-        <v>0.68410000000000004</v>
+        <v>0.56669999999999998</v>
       </c>
       <c r="AW7">
-        <v>0.72</v>
+        <v>0.36990000000000001</v>
       </c>
       <c r="AX7">
-        <v>0.72560000000000002</v>
+        <v>0.52249999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.56110000000000004</v>
+        <v>0.51759999999999995</v>
       </c>
       <c r="B8">
-        <v>0.44579999999999997</v>
+        <v>0.47349999999999998</v>
       </c>
       <c r="C8">
-        <v>0.79</v>
+        <v>0.70140000000000002</v>
       </c>
       <c r="D8">
-        <v>0.71250000000000002</v>
+        <v>0.82850000000000001</v>
       </c>
       <c r="E8">
-        <v>0.48259999999999997</v>
+        <v>0.81310000000000004</v>
       </c>
       <c r="F8">
-        <v>0.78459999999999996</v>
+        <v>0.8014</v>
       </c>
       <c r="G8">
-        <v>3.4099999999999998E-2</v>
+        <v>0.75529999999999997</v>
       </c>
       <c r="H8">
-        <v>0.80059999999999998</v>
+        <v>0.71379999999999999</v>
       </c>
       <c r="I8">
-        <v>0.76049999999999995</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="J8">
-        <v>0.52980000000000005</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="K8">
-        <v>0.77949999999999997</v>
+        <v>0.52549999999999997</v>
       </c>
       <c r="L8">
-        <v>0.25340000000000001</v>
+        <v>0.50539999999999996</v>
       </c>
       <c r="M8">
-        <v>0.85909999999999997</v>
+        <v>0.75429999999999997</v>
       </c>
       <c r="N8">
-        <v>0.75049999999999994</v>
+        <v>0.42970000000000003</v>
       </c>
       <c r="O8">
-        <v>0.88719999999999999</v>
+        <v>0.2041</v>
       </c>
       <c r="P8">
-        <v>0.6603</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="Q8">
-        <v>0.5978</v>
+        <v>0.87580000000000002</v>
       </c>
       <c r="R8">
-        <v>0.80349999999999999</v>
+        <v>0.60129999999999995</v>
       </c>
       <c r="S8">
-        <v>0.46210000000000001</v>
+        <v>0.57450000000000001</v>
       </c>
       <c r="T8">
-        <v>0.89770000000000005</v>
+        <v>0.55840000000000001</v>
       </c>
       <c r="U8">
-        <v>0.90900000000000003</v>
+        <v>0.88770000000000004</v>
       </c>
       <c r="V8">
-        <v>0.4279</v>
+        <v>0.68079999999999996</v>
       </c>
       <c r="W8">
-        <v>0.55569999999999997</v>
+        <v>0.78290000000000004</v>
       </c>
       <c r="X8">
-        <v>0.86699999999999999</v>
+        <v>0.59809999999999997</v>
       </c>
       <c r="Y8">
-        <v>0.67059999999999997</v>
+        <v>0.38679999999999998</v>
       </c>
       <c r="Z8">
-        <v>0.57630000000000003</v>
+        <v>0.54379999999999995</v>
       </c>
       <c r="AA8">
-        <v>0.57120000000000004</v>
+        <v>0.67589999999999995</v>
       </c>
       <c r="AB8">
-        <v>0.51239999999999997</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.97950000000000004</v>
+        <v>0.71989999999999998</v>
       </c>
       <c r="AD8">
-        <v>0.45219999999999999</v>
+        <v>0.70450000000000002</v>
       </c>
       <c r="AE8">
-        <v>0.6512</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="AF8">
-        <v>0.78290000000000004</v>
+        <v>0.57220000000000004</v>
       </c>
       <c r="AG8">
-        <v>0.83420000000000005</v>
+        <v>0.21010000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.27229999999999999</v>
+        <v>0.2049</v>
       </c>
       <c r="AI8">
-        <v>0.3992</v>
+        <v>0.40060000000000001</v>
       </c>
       <c r="AJ8">
-        <v>0.33095000000000002</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="AK8">
-        <v>0.43149999999999999</v>
+        <v>0.4118</v>
       </c>
       <c r="AL8">
-        <v>0.61939999999999995</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="AM8">
-        <v>0.26390000000000002</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="AN8">
-        <v>0.49840000000000001</v>
+        <v>0.5998</v>
       </c>
       <c r="AO8">
-        <v>0.6885</v>
+        <v>0.41160000000000002</v>
       </c>
       <c r="AP8">
-        <v>0.41249999999999998</v>
+        <v>0.1323</v>
       </c>
       <c r="AQ8">
-        <v>0.39079999999999998</v>
+        <v>0.64239999999999997</v>
       </c>
       <c r="AR8">
-        <v>0.75900000000000001</v>
+        <v>0.53290000000000004</v>
       </c>
       <c r="AS8">
-        <v>0.79910000000000003</v>
+        <v>0.47970000000000002</v>
       </c>
       <c r="AT8">
-        <v>0.71870000000000001</v>
+        <v>0.9173</v>
       </c>
       <c r="AU8">
-        <v>0.42359999999999998</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="AV8">
-        <v>0.71299999999999997</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="AW8">
-        <v>0.74809999999999999</v>
+        <v>0.22589999999999999</v>
       </c>
       <c r="AX8">
-        <v>0.60460000000000003</v>
+        <v>0.35099999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.38990000000000002</v>
+        <v>0.47910000000000003</v>
       </c>
       <c r="B9">
-        <v>0.49519999999999997</v>
+        <v>0.24809999999999999</v>
       </c>
       <c r="C9">
-        <v>0.50190000000000001</v>
+        <v>0.80679999999999996</v>
       </c>
       <c r="D9">
-        <v>0.62739999999999996</v>
+        <v>0.90869999999999995</v>
       </c>
       <c r="E9">
-        <v>0.30690000000000001</v>
+        <v>0.88919999999999999</v>
       </c>
       <c r="F9">
-        <v>0.67749999999999999</v>
+        <v>0.72770000000000001</v>
       </c>
       <c r="G9">
-        <v>5.8900000000000001E-2</v>
+        <v>0.56130000000000002</v>
       </c>
       <c r="H9">
-        <v>0.56399999999999995</v>
+        <v>0.54190000000000005</v>
       </c>
       <c r="I9">
-        <v>0.61429999999999996</v>
+        <v>0.56330000000000002</v>
       </c>
       <c r="J9">
-        <v>0.70799999999999996</v>
+        <v>0.4289</v>
       </c>
       <c r="K9">
-        <v>0.71140000000000003</v>
+        <v>0.439</v>
       </c>
       <c r="L9">
-        <v>0.3836</v>
+        <v>0.46589999999999998</v>
       </c>
       <c r="M9">
-        <v>0.72070000000000001</v>
+        <v>0.82469999999999999</v>
       </c>
       <c r="N9">
-        <v>0.81259999999999999</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="O9">
-        <v>0.80049999999999999</v>
+        <v>0.16980000000000001</v>
       </c>
       <c r="P9">
-        <v>0.68620000000000003</v>
+        <v>0.3805</v>
       </c>
       <c r="Q9">
-        <v>0.66</v>
+        <v>0.8851</v>
       </c>
       <c r="R9">
-        <v>0.73029999999999995</v>
+        <v>0.81740000000000002</v>
       </c>
       <c r="S9">
-        <v>0.39290000000000003</v>
+        <v>0.76080000000000003</v>
       </c>
       <c r="T9">
-        <v>0.94830000000000003</v>
+        <v>0.73619999999999997</v>
       </c>
       <c r="U9">
-        <v>0.82020000000000004</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="V9">
-        <v>0.53220000000000001</v>
+        <v>0.56879999999999997</v>
       </c>
       <c r="W9">
-        <v>0.46489999999999998</v>
+        <v>0.78539999999999999</v>
       </c>
       <c r="X9">
-        <v>0.7601</v>
+        <v>0.65</v>
       </c>
       <c r="Y9">
-        <v>0.59809999999999997</v>
+        <v>0.43569999999999998</v>
       </c>
       <c r="Z9">
-        <v>0.49959999999999999</v>
+        <v>0.63190000000000002</v>
       </c>
       <c r="AA9">
-        <v>0.51270000000000004</v>
+        <v>0.55289999999999995</v>
       </c>
       <c r="AB9">
-        <v>0.28389999999999999</v>
+        <v>0.77790000000000004</v>
       </c>
       <c r="AC9">
-        <v>0.93840000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="AD9">
-        <v>0.4995</v>
+        <v>0.55059999999999998</v>
       </c>
       <c r="AE9">
-        <v>0.36699999999999999</v>
+        <v>0.53129999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.59919999999999995</v>
+        <v>0.52049999999999996</v>
       </c>
       <c r="AG9">
-        <v>0.84489999999999998</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="AH9">
-        <v>7.0800000000000002E-2</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="AI9">
-        <v>0.59789999999999999</v>
+        <v>0.43780000000000002</v>
       </c>
       <c r="AJ9">
-        <v>0.48010000000000003</v>
+        <v>0.62160000000000004</v>
       </c>
       <c r="AK9">
-        <v>0.72040000000000004</v>
+        <v>0.28439999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.70630000000000004</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="AM9">
-        <v>0.3105</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="AN9">
-        <v>0.47949999999999998</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="AO9">
-        <v>0.5464</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="AP9">
-        <v>0.39810000000000001</v>
+        <v>0.34139999999999998</v>
       </c>
       <c r="AQ9">
-        <v>0.31740000000000002</v>
+        <v>0.49580000000000002</v>
       </c>
       <c r="AR9">
-        <v>0.76580000000000004</v>
+        <v>0.57389999999999997</v>
       </c>
       <c r="AS9">
-        <v>0.90839999999999999</v>
+        <v>0.70650000000000002</v>
       </c>
       <c r="AT9">
-        <v>0.70379999999999998</v>
+        <v>0.91390000000000005</v>
       </c>
       <c r="AU9">
-        <v>0.35560000000000003</v>
+        <v>0.24809999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.9123</v>
+        <v>0.56989999999999996</v>
       </c>
       <c r="AW9">
-        <v>0.5252</v>
+        <v>0.28760000000000002</v>
       </c>
       <c r="AX9">
-        <v>0.7258</v>
+        <v>0.12759999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.2974</v>
+        <v>0.29320000000000002</v>
       </c>
       <c r="B10">
-        <v>0.45639999999999997</v>
+        <v>0.31430000000000002</v>
       </c>
       <c r="C10">
-        <v>0.41170000000000001</v>
+        <v>0.73650000000000004</v>
       </c>
       <c r="D10">
-        <v>0.84470000000000001</v>
+        <v>0.77559999999999996</v>
       </c>
       <c r="E10">
-        <v>0.30659999999999998</v>
+        <v>0.82689999999999997</v>
       </c>
       <c r="F10">
-        <v>0.75270000000000004</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="G10">
-        <v>2.7300000000000001E-2</v>
+        <v>0.51070000000000004</v>
       </c>
       <c r="H10">
-        <v>0.57830000000000004</v>
+        <v>0.1832</v>
       </c>
       <c r="I10">
-        <v>0.70320000000000005</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="J10">
-        <v>0.7026</v>
+        <v>0.4844</v>
       </c>
       <c r="K10">
-        <v>0.66720000000000002</v>
+        <v>0.42680000000000001</v>
       </c>
       <c r="L10">
-        <v>0.30630000000000002</v>
+        <v>0.57850000000000001</v>
       </c>
       <c r="M10">
-        <v>0.61960000000000004</v>
+        <v>0.66710000000000003</v>
       </c>
       <c r="N10">
-        <v>0.77569999999999995</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="O10">
-        <v>0.85319999999999996</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="P10">
-        <v>0.57809999999999995</v>
+        <v>0.10780000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.61670000000000003</v>
+        <v>0.9375</v>
       </c>
       <c r="R10">
-        <v>0.58099999999999996</v>
+        <v>0.77549999999999997</v>
       </c>
       <c r="S10">
-        <v>0.41</v>
+        <v>0.74809999999999999</v>
       </c>
       <c r="T10">
-        <v>0.92090000000000005</v>
+        <v>0.71209999999999996</v>
       </c>
       <c r="U10">
-        <v>0.73099999999999998</v>
+        <v>0.90229999999999999</v>
       </c>
       <c r="V10">
-        <v>0.58879999999999999</v>
+        <v>0.66890000000000005</v>
       </c>
       <c r="W10">
-        <v>0.49</v>
+        <v>0.75160000000000005</v>
       </c>
       <c r="X10">
-        <v>0.84960000000000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="Y10">
-        <v>0.40529999999999999</v>
+        <v>0.2485</v>
       </c>
       <c r="Z10">
-        <v>0.52290000000000003</v>
+        <v>0.57950000000000002</v>
       </c>
       <c r="AA10">
-        <v>0.52500000000000002</v>
+        <v>0.38069999999999998</v>
       </c>
       <c r="AB10">
-        <v>0.28149999999999997</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="AC10">
-        <v>0.81769999999999998</v>
+        <v>0.64390000000000003</v>
       </c>
       <c r="AD10">
-        <v>0.49709999999999999</v>
+        <v>0.52759999999999996</v>
       </c>
       <c r="AE10">
-        <v>0.40910000000000002</v>
+        <v>0.5706</v>
       </c>
       <c r="AF10">
-        <v>0.6956</v>
+        <v>0.39950000000000002</v>
       </c>
       <c r="AG10">
-        <v>0.93930000000000002</v>
+        <v>0.43690000000000001</v>
       </c>
       <c r="AH10">
-        <v>7.4200000000000002E-2</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="AI10">
-        <v>0.6179</v>
+        <v>0.62809999999999999</v>
       </c>
       <c r="AJ10">
-        <v>0.753</v>
+        <v>0.50870000000000004</v>
       </c>
       <c r="AK10">
-        <v>0.78200000000000003</v>
+        <v>0.13350000000000001</v>
       </c>
       <c r="AL10">
-        <v>0.81940000000000002</v>
+        <v>0.32269999999999999</v>
       </c>
       <c r="AM10">
-        <v>0.45519999999999999</v>
+        <v>0.76980000000000004</v>
       </c>
       <c r="AN10">
-        <v>0.4849</v>
+        <v>0.7802</v>
       </c>
       <c r="AO10">
-        <v>0.57040000000000002</v>
+        <v>0.1608</v>
       </c>
       <c r="AP10">
-        <v>0.48609999999999998</v>
+        <v>0.51970000000000005</v>
       </c>
       <c r="AQ10">
-        <v>0.28570000000000001</v>
+        <v>0.44490000000000002</v>
       </c>
       <c r="AR10">
-        <v>0.72089999999999999</v>
+        <v>0.46929999999999999</v>
       </c>
       <c r="AS10">
-        <v>0.79930000000000001</v>
+        <v>0.44450000000000001</v>
       </c>
       <c r="AT10">
-        <v>0.70720000000000005</v>
+        <v>0.8881</v>
       </c>
       <c r="AU10">
-        <v>0.33600000000000002</v>
+        <v>0.27710000000000001</v>
       </c>
       <c r="AV10">
-        <v>0.85089999999999999</v>
+        <v>0.50309999999999999</v>
       </c>
       <c r="AW10">
-        <v>0.42130000000000001</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="AX10">
-        <v>0.57310000000000005</v>
+        <v>0.1108</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.1356</v>
+        <v>0.59060000000000001</v>
       </c>
       <c r="B11">
-        <v>0.27029999999999998</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="C11">
-        <v>9.8100000000000007E-2</v>
+        <v>0.72989999999999999</v>
       </c>
       <c r="D11">
-        <v>0.68869999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="E11">
-        <v>0.48720000000000002</v>
+        <v>0.7631</v>
       </c>
       <c r="F11">
-        <v>0.56950000000000001</v>
+        <v>0.82130000000000003</v>
       </c>
       <c r="G11">
-        <v>2.98E-2</v>
+        <v>0.51690000000000003</v>
       </c>
       <c r="H11">
-        <v>0.40300000000000002</v>
+        <v>0.4672</v>
       </c>
       <c r="I11">
-        <v>0.56410000000000005</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="J11">
-        <v>0.65039999999999998</v>
+        <v>0.52669999999999995</v>
       </c>
       <c r="K11">
-        <v>0.58360000000000001</v>
+        <v>0.57369999999999999</v>
       </c>
       <c r="L11">
-        <v>0.42430000000000001</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="M11">
-        <v>0.63200000000000001</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="N11">
-        <v>0.78810000000000002</v>
+        <v>0.47770000000000001</v>
       </c>
       <c r="O11">
-        <v>0.74609999999999999</v>
+        <v>0.44109999999999999</v>
       </c>
       <c r="P11">
-        <v>0.58630000000000004</v>
+        <v>0.25580000000000003</v>
       </c>
       <c r="Q11">
-        <v>0.54510000000000003</v>
+        <v>0.94879999999999998</v>
       </c>
       <c r="R11">
-        <v>0.62419999999999998</v>
+        <v>0.83189999999999997</v>
       </c>
       <c r="S11">
-        <v>0.5403</v>
+        <v>0.6915</v>
       </c>
       <c r="T11">
-        <v>0.82420000000000004</v>
+        <v>0.6946</v>
       </c>
       <c r="U11">
-        <v>0.86060000000000003</v>
+        <v>0.95050000000000001</v>
       </c>
       <c r="V11">
-        <v>0.38269999999999998</v>
+        <v>0.72040000000000004</v>
       </c>
       <c r="W11">
-        <v>0.59240000000000004</v>
+        <v>0.64059999999999995</v>
       </c>
       <c r="X11">
-        <v>0.77539999999999998</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="Y11">
-        <v>0.53920000000000001</v>
+        <v>0.16009999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.71240000000000003</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="AA11">
-        <v>0.72050000000000003</v>
+        <v>0.20430000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.31340000000000001</v>
+        <v>0.59340000000000004</v>
       </c>
       <c r="AC11">
-        <v>0.69040000000000001</v>
+        <v>0.69450000000000001</v>
       </c>
       <c r="AD11">
-        <v>0.40560000000000002</v>
+        <v>0.67689999999999995</v>
       </c>
       <c r="AE11">
-        <v>0.46500000000000002</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="AF11">
-        <v>0.65290000000000004</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.96679999999999999</v>
+        <v>0.44319999999999998</v>
       </c>
       <c r="AH11">
-        <v>8.8900000000000007E-2</v>
+        <v>0.54449999999999998</v>
       </c>
       <c r="AI11">
-        <v>0.57030000000000003</v>
+        <v>0.55640000000000001</v>
       </c>
       <c r="AJ11">
-        <v>0.75760000000000005</v>
+        <v>0.33179999999999998</v>
       </c>
       <c r="AK11">
-        <v>0.67290000000000005</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="AL11">
-        <v>0.80220000000000002</v>
+        <v>0.5907</v>
       </c>
       <c r="AM11">
-        <v>0.4108</v>
+        <v>0.87460000000000004</v>
       </c>
       <c r="AN11">
-        <v>0.35589999999999999</v>
+        <v>0.71160000000000001</v>
       </c>
       <c r="AO11">
-        <v>0.53910000000000002</v>
+        <v>0.32979999999999998</v>
       </c>
       <c r="AP11">
-        <v>0.4864</v>
+        <v>0.62690000000000001</v>
       </c>
       <c r="AQ11">
-        <v>0.24340000000000001</v>
+        <v>0.77229999999999999</v>
       </c>
       <c r="AR11">
-        <v>0.77859999999999996</v>
+        <v>0.29220000000000002</v>
       </c>
       <c r="AS11">
-        <v>0.6512</v>
+        <v>0.57079999999999997</v>
       </c>
       <c r="AT11">
-        <v>0.83720000000000006</v>
+        <v>0.8448</v>
       </c>
       <c r="AU11">
-        <v>0.42130000000000001</v>
+        <v>0.25380000000000003</v>
       </c>
       <c r="AV11">
-        <v>0.86329999999999996</v>
+        <v>0.58540000000000003</v>
       </c>
       <c r="AW11">
-        <v>0.50729999999999997</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="AX11">
-        <v>0.47089999999999999</v>
+        <v>4.8899999999999999E-2</v>
       </c>
     </row>
   </sheetData>
